--- a/dist/static/dongchenghuafu.xlsx
+++ b/dist/static/dongchenghuafu.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="G14" sheetId="1" r:id="rId2"/>
+    <sheet name="G14" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,19 +166,6 @@
   <si>
     <t>ArgusHuang</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网址：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://fgj.wuhan.gov.cn/zz_spfxmcx_index.jspx</t>
-  </si>
-  <si>
-    <t>http://fgj.wuhan.gov.cn/zz_spfxmcx_loupan.jspx?dengJh=%E5%A4%8F1800093</t>
-  </si>
-  <si>
-    <t>楼盘表（栋表）</t>
   </si>
   <si>
     <t xml:space="preserve">             室号
@@ -211,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,14 +225,6 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF666666"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -286,15 +264,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -325,49 +302,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>379668</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>18980</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="723900"/>
-          <a:ext cx="10657143" cy="561905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -672,43 +606,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X33"/>
   <sheetViews>
@@ -722,54 +619,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="6">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="5">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5">
         <v>3</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5">
         <v>4</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5">
         <v>5</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5">
         <v>6</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5">
         <v>7</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5">
         <v>8</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5">
         <v>9</v>
       </c>
-      <c r="S1" s="6"/>
+      <c r="S1" s="5"/>
       <c r="U1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -825,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -833,10 +730,10 @@
         <v>3</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
